--- a/biology/Botanique/Robert_Chodat/Robert_Chodat.xlsx
+++ b/biology/Botanique/Robert_Chodat/Robert_Chodat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Hippolyte Chodat, né le 6 avril 1865 à Moutier-Grandval et mort le 28 avril 1934 à Pinchat (commune de Carouge GE), est un botaniste suisse.
 Il remporte la médaille linnéenne en 1933.
@@ -512,7 +524,9 @@
           <t>Éléments biographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chodat fut professeur de botanique et directeur de l'institut botanique de l'Université de Genève.
 Il réalisa un voyage d'exploration botanique au Paraguay (Région Orientale) en compagnie de Emil Hassler (1914).
@@ -547,11 +561,13 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1889 : Diatomées fossiles du Japon : Espèces marines &amp; nouvelles des calcaires argileux de Sendaï &amp; de Yedo (avec Jacques &amp; T. Tempère)
 1891-1893 : Monographia Polygalacearum
-1898-1907 : Plantae Hasslerianae (avec Emil Hassler)[1],[2],[3],[4],[5]
+1898-1907 : Plantae Hasslerianae (avec Emil Hassler)
 1902 : Algues vertes de la Suisse : Pleurococcoïdes - Chroolépoïdes
 1907 : Principes de Botanique (réédité en 1911 et en 1920)
 1909 : Étude critique et expérimentale sur le polymorphisme des algues
